--- a/DW charting example data.xlsx
+++ b/DW charting example data.xlsx
@@ -6,7 +6,7 @@
     <sheet state="visible" name="Electricity" sheetId="1" r:id="rId3"/>
     <sheet state="visible" name="HeroinSeizures" sheetId="2" r:id="rId4"/>
     <sheet state="visible" name="Unemployment" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="TrumpApproval" sheetId="4" r:id="rId6"/>
+    <sheet state="visible" name="BidenApproval" sheetId="4" r:id="rId6"/>
     <sheet state="visible" name="BoatRates" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="260">
   <si>
     <t>Electricity source</t>
   </si>
@@ -419,6 +419,9 @@
     <t>Hispanic</t>
   </si>
   <si>
+    <t>Asian</t>
+  </si>
+  <si>
     <t>Age</t>
   </si>
   <si>
@@ -476,13 +479,13 @@
     <t>Dem. Or lean Dem.</t>
   </si>
   <si>
-    <t>Wide differences in Trump approval</t>
-  </si>
-  <si>
-    <t>Pew Research poll results of question: “Do you approve or disapprove of the way Trump is handling his job as president?”</t>
-  </si>
-  <si>
-    <t>Pew Research Center survey of U.S. adults conducted March 7-14, 2018.</t>
+    <t>Wide differences in Biden approval</t>
+  </si>
+  <si>
+    <t>Pew Research poll results of question: “Do you approve or disapprove of the way Biden is handling his job as president?”</t>
+  </si>
+  <si>
+    <t>Pew Research Center survey of U.S. adults conducted January 10-17, 2022.</t>
   </si>
   <si>
     <t>County</t>
@@ -3451,10 +3454,10 @@
         <v>123</v>
       </c>
       <c r="C2" s="9">
-        <v>54.0</v>
+        <v>56.0</v>
       </c>
       <c r="D2" s="9">
-        <v>39.0</v>
+        <v>41.0</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>124</v>
@@ -3468,10 +3471,10 @@
         <v>126</v>
       </c>
       <c r="C3" s="9">
-        <v>50.0</v>
+        <v>58.0</v>
       </c>
       <c r="D3" s="9">
-        <v>44.0</v>
+        <v>39.0</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>127</v>
@@ -3485,10 +3488,10 @@
         <v>128</v>
       </c>
       <c r="C4" s="9">
-        <v>58.0</v>
+        <v>55.0</v>
       </c>
       <c r="D4" s="9">
-        <v>34.0</v>
+        <v>42.0</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>129</v>
@@ -3502,10 +3505,10 @@
         <v>131</v>
       </c>
       <c r="C5" s="9">
-        <v>45.0</v>
+        <v>64.0</v>
       </c>
       <c r="D5" s="9">
-        <v>50.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="6">
@@ -3516,10 +3519,10 @@
         <v>132</v>
       </c>
       <c r="C6" s="9">
-        <v>85.0</v>
+        <v>35.0</v>
       </c>
       <c r="D6" s="9">
-        <v>9.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="7">
@@ -3530,225 +3533,234 @@
         <v>133</v>
       </c>
       <c r="C7" s="9">
-        <v>74.0</v>
+        <v>46.0</v>
       </c>
       <c r="D7" s="9">
-        <v>17.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>135</v>
-      </c>
       <c r="C8" s="9">
-        <v>59.0</v>
+        <v>44.0</v>
       </c>
       <c r="D8" s="9">
-        <v>32.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>136</v>
       </c>
       <c r="C9" s="9">
-        <v>56.0</v>
+        <v>63.0</v>
       </c>
       <c r="D9" s="9">
-        <v>36.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>137</v>
       </c>
       <c r="C10" s="9">
-        <v>54.0</v>
+        <v>56.0</v>
       </c>
       <c r="D10" s="9">
-        <v>40.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>138</v>
       </c>
       <c r="C11" s="9">
-        <v>46.0</v>
+        <v>55.0</v>
       </c>
       <c r="D11" s="9">
-        <v>49.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>140</v>
-      </c>
       <c r="C12" s="9">
-        <v>18.0</v>
+        <v>55.0</v>
       </c>
       <c r="D12" s="9">
-        <v>78.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>141</v>
       </c>
       <c r="C13" s="9">
-        <v>46.0</v>
+        <v>78.0</v>
       </c>
       <c r="D13" s="9">
-        <v>48.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>142</v>
       </c>
       <c r="C14" s="9">
-        <v>84.0</v>
+        <v>48.0</v>
       </c>
       <c r="D14" s="9">
-        <v>9.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>143</v>
       </c>
       <c r="C15" s="9">
-        <v>57.0</v>
+        <v>9.0</v>
       </c>
       <c r="D15" s="9">
-        <v>35.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>144</v>
       </c>
       <c r="C16" s="9">
-        <v>68.0</v>
+        <v>35.0</v>
       </c>
       <c r="D16" s="9">
-        <v>26.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>146</v>
-      </c>
       <c r="C17" s="9">
-        <v>71.0</v>
+        <v>26.0</v>
       </c>
       <c r="D17" s="9">
-        <v>26.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>147</v>
       </c>
       <c r="C18" s="9">
-        <v>64.0</v>
+        <v>45.0</v>
       </c>
       <c r="D18" s="9">
-        <v>32.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>148</v>
       </c>
       <c r="C19" s="9">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
       <c r="D19" s="9">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>149</v>
       </c>
       <c r="C20" s="9">
-        <v>46.0</v>
+        <v>59.0</v>
       </c>
       <c r="D20" s="9">
-        <v>44.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>151</v>
-      </c>
       <c r="C21" s="9">
-        <v>18.0</v>
+        <v>59.0</v>
       </c>
       <c r="D21" s="9">
-        <v>76.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>152</v>
       </c>
       <c r="C22" s="9">
-        <v>89.0</v>
+        <v>95.0</v>
       </c>
       <c r="D22" s="9">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>153</v>
+      </c>
+      <c r="C23" s="9">
+        <v>29.0</v>
+      </c>
+      <c r="D23" s="9">
+        <v>68.0</v>
       </c>
     </row>
     <row r="26">
@@ -3759,6 +3771,11 @@
     <row r="27">
       <c r="A27" s="1" t="s">
         <v>155</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3787,36 +3804,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C2" s="14">
         <v>15821.0</v>
@@ -3837,15 +3854,15 @@
         <v>44524.0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C3" s="14">
         <v>352674.0</v>
@@ -3868,10 +3885,10 @@
     </row>
     <row r="4">
       <c r="A4" s="13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C4" s="14">
         <v>34103.0</v>
@@ -3894,10 +3911,10 @@
     </row>
     <row r="5">
       <c r="A5" s="13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C5" s="14">
         <v>46585.0</v>
@@ -3920,10 +3937,10 @@
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C6" s="14">
         <v>40128.0</v>
@@ -3946,10 +3963,10 @@
     </row>
     <row r="7">
       <c r="A7" s="13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C7" s="14">
         <v>5029.0</v>
@@ -3972,10 +3989,10 @@
     </row>
     <row r="8">
       <c r="A8" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C8" s="14">
         <v>67220.0</v>
@@ -3998,10 +4015,10 @@
     </row>
     <row r="9">
       <c r="A9" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>179</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>178</v>
       </c>
       <c r="C9" s="14">
         <v>25245.0</v>
@@ -4024,10 +4041,10 @@
     </row>
     <row r="10">
       <c r="A10" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C10" s="14">
         <v>35655.0</v>
@@ -4050,10 +4067,10 @@
     </row>
     <row r="11">
       <c r="A11" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C11" s="14">
         <v>102858.0</v>
@@ -4076,10 +4093,10 @@
     </row>
     <row r="12">
       <c r="A12" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C12" s="14">
         <v>29327.0</v>
@@ -4102,10 +4119,10 @@
     </row>
     <row r="13">
       <c r="A13" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C13" s="14">
         <v>12045.0</v>
@@ -4128,10 +4145,10 @@
     </row>
     <row r="14">
       <c r="A14" s="13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C14" s="14">
         <v>55321.0</v>
@@ -4154,10 +4171,10 @@
     </row>
     <row r="15">
       <c r="A15" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C15" s="14">
         <v>63789.0</v>
@@ -4180,10 +4197,10 @@
     </row>
     <row r="16">
       <c r="A16" s="13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C16" s="14">
         <v>8875.0</v>
@@ -4206,10 +4223,10 @@
     </row>
     <row r="17">
       <c r="A17" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C17" s="14">
         <v>5388.0</v>
@@ -4232,10 +4249,10 @@
     </row>
     <row r="18">
       <c r="A18" s="13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C18" s="14">
         <v>11320.0</v>
@@ -4258,10 +4275,10 @@
     </row>
     <row r="19">
       <c r="A19" s="13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C19" s="14">
         <v>64517.0</v>
@@ -4284,10 +4301,10 @@
     </row>
     <row r="20">
       <c r="A20" s="13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C20" s="14">
         <v>422580.0</v>
@@ -4310,10 +4327,10 @@
     </row>
     <row r="21">
       <c r="A21" s="13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C21" s="14">
         <v>20762.0</v>
@@ -4336,10 +4353,10 @@
     </row>
     <row r="22">
       <c r="A22" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C22" s="14">
         <v>37654.0</v>
@@ -4362,10 +4379,10 @@
     </row>
     <row r="23">
       <c r="A23" s="13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C23" s="14">
         <v>13671.0</v>
@@ -4388,10 +4405,10 @@
     </row>
     <row r="24">
       <c r="A24" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C24" s="14">
         <v>20979.0</v>
@@ -4414,10 +4431,10 @@
     </row>
     <row r="25">
       <c r="A25" s="13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C25" s="14">
         <v>30550.0</v>
@@ -4440,10 +4457,10 @@
     </row>
     <row r="26">
       <c r="A26" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C26" s="14">
         <v>46562.0</v>
@@ -4466,10 +4483,10 @@
     </row>
     <row r="27">
       <c r="A27" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C27" s="14">
         <v>5904.0</v>
@@ -4492,10 +4509,10 @@
     </row>
     <row r="28">
       <c r="A28" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C28" s="14">
         <v>1249512.0</v>
@@ -4518,10 +4535,10 @@
     </row>
     <row r="29">
       <c r="A29" s="13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C29" s="14">
         <v>18761.0</v>
@@ -4544,10 +4561,10 @@
     </row>
     <row r="30">
       <c r="A30" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C30" s="14">
         <v>21034.0</v>
@@ -4570,10 +4587,10 @@
     </row>
     <row r="31">
       <c r="A31" s="13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C31" s="14">
         <v>39553.0</v>
@@ -4596,10 +4613,10 @@
     </row>
     <row r="32">
       <c r="A32" s="13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C32" s="14">
         <v>45346.0</v>
@@ -4622,10 +4639,10 @@
     </row>
     <row r="33">
       <c r="A33" s="13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C33" s="14">
         <v>9951.0</v>
@@ -4648,10 +4665,10 @@
     </row>
     <row r="34">
       <c r="A34" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C34" s="14">
         <v>16010.0</v>
@@ -4674,10 +4691,10 @@
     </row>
     <row r="35">
       <c r="A35" s="13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C35" s="14">
         <v>42768.0</v>
@@ -4700,10 +4717,10 @@
     </row>
     <row r="36">
       <c r="A36" s="13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C36" s="14">
         <v>4262.0</v>
@@ -4726,10 +4743,10 @@
     </row>
     <row r="37">
       <c r="A37" s="13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C37" s="14">
         <v>12640.0</v>
@@ -4752,10 +4769,10 @@
     </row>
     <row r="38">
       <c r="A38" s="13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C38" s="14">
         <v>6687.0</v>
@@ -4778,10 +4795,10 @@
     </row>
     <row r="39">
       <c r="A39" s="13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C39" s="14">
         <v>10531.0</v>
@@ -4804,10 +4821,10 @@
     </row>
     <row r="40">
       <c r="A40" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C40" s="14">
         <v>3802.0</v>
@@ -4830,10 +4847,10 @@
     </row>
     <row r="41">
       <c r="A41" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C41" s="14">
         <v>27881.0</v>
@@ -4856,10 +4873,10 @@
     </row>
     <row r="42">
       <c r="A42" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C42" s="14">
         <v>5709.0</v>
@@ -4882,10 +4899,10 @@
     </row>
     <row r="43">
       <c r="A43" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C43" s="14">
         <v>25823.0</v>
@@ -4908,10 +4925,10 @@
     </row>
     <row r="44">
       <c r="A44" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C44" s="14">
         <v>5572.0</v>
@@ -4934,10 +4951,10 @@
     </row>
     <row r="45">
       <c r="A45" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C45" s="14">
         <v>9351.0</v>
@@ -4960,10 +4977,10 @@
     </row>
     <row r="46">
       <c r="A46" s="13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C46" s="14">
         <v>19865.0</v>
@@ -4986,10 +5003,10 @@
     </row>
     <row r="47">
       <c r="A47" s="13" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C47" s="14">
         <v>35884.0</v>
@@ -5012,10 +5029,10 @@
     </row>
     <row r="48">
       <c r="A48" s="13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C48" s="14">
         <v>23155.0</v>
@@ -5038,10 +5055,10 @@
     </row>
     <row r="49">
       <c r="A49" s="13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C49" s="14">
         <v>25878.0</v>
@@ -5064,10 +5081,10 @@
     </row>
     <row r="50">
       <c r="A50" s="13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C50" s="14">
         <v>33074.0</v>
@@ -5090,10 +5107,10 @@
     </row>
     <row r="51">
       <c r="A51" s="13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C51" s="14">
         <v>39602.0</v>
@@ -5116,10 +5133,10 @@
     </row>
     <row r="52">
       <c r="A52" s="13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C52" s="14">
         <v>8344.0</v>
@@ -5142,10 +5159,10 @@
     </row>
     <row r="53">
       <c r="A53" s="13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C53" s="14">
         <v>33892.0</v>
@@ -5168,10 +5185,10 @@
     </row>
     <row r="54">
       <c r="A54" s="13" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C54" s="14">
         <v>21963.0</v>
@@ -5194,10 +5211,10 @@
     </row>
     <row r="55">
       <c r="A55" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C55" s="14">
         <v>6601.0</v>
@@ -5220,10 +5237,10 @@
     </row>
     <row r="56">
       <c r="A56" s="13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C56" s="14">
         <v>155849.0</v>
@@ -5246,10 +5263,10 @@
     </row>
     <row r="57">
       <c r="A57" s="13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C57" s="14">
         <v>58329.0</v>
@@ -5272,10 +5289,10 @@
     </row>
     <row r="58">
       <c r="A58" s="13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C58" s="14">
         <v>14301.0</v>
@@ -5298,10 +5315,10 @@
     </row>
     <row r="59">
       <c r="A59" s="13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C59" s="14">
         <v>29192.0</v>
@@ -5324,10 +5341,10 @@
     </row>
     <row r="60">
       <c r="A60" s="13" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C60" s="14">
         <v>9127.0</v>
@@ -5350,10 +5367,10 @@
     </row>
     <row r="61">
       <c r="A61" s="13" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C61" s="14">
         <v>31720.0</v>
@@ -5376,10 +5393,10 @@
     </row>
     <row r="62">
       <c r="A62" s="13" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C62" s="14">
         <v>10950.0</v>
@@ -5402,10 +5419,10 @@
     </row>
     <row r="63">
       <c r="A63" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C63" s="14">
         <v>546317.0</v>
@@ -5428,10 +5445,10 @@
     </row>
     <row r="64">
       <c r="A64" s="13" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C64" s="14">
         <v>4007.0</v>
@@ -5454,10 +5471,10 @@
     </row>
     <row r="65">
       <c r="A65" s="13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C65" s="14">
         <v>15278.0</v>
@@ -5480,10 +5497,10 @@
     </row>
     <row r="66">
       <c r="A66" s="13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C66" s="14">
         <v>14689.0</v>
@@ -5506,10 +5523,10 @@
     </row>
     <row r="67">
       <c r="A67" s="13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C67" s="14">
         <v>65960.0</v>
@@ -5532,10 +5549,10 @@
     </row>
     <row r="68">
       <c r="A68" s="13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C68" s="14">
         <v>9491.0</v>
@@ -5558,10 +5575,10 @@
     </row>
     <row r="69">
       <c r="A69" s="13" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C69" s="14">
         <v>15484.0</v>
@@ -5584,10 +5601,10 @@
     </row>
     <row r="70">
       <c r="A70" s="13" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C70" s="14">
         <v>144717.0</v>
@@ -5610,10 +5627,10 @@
     </row>
     <row r="71">
       <c r="A71" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C71" s="14">
         <v>94748.0</v>
@@ -5636,10 +5653,10 @@
     </row>
     <row r="72">
       <c r="A72" s="13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C72" s="14">
         <v>14869.0</v>
@@ -5662,10 +5679,10 @@
     </row>
     <row r="73">
       <c r="A73" s="13" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C73" s="14">
         <v>199922.0</v>
@@ -5688,10 +5705,10 @@
     </row>
     <row r="74">
       <c r="A74" s="13" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C74" s="14">
         <v>157660.0</v>
@@ -5714,10 +5731,10 @@
     </row>
     <row r="75">
       <c r="A75" s="13" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C75" s="14">
         <v>36828.0</v>
@@ -5740,10 +5757,10 @@
     </row>
     <row r="76">
       <c r="A76" s="13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C76" s="14">
         <v>9748.0</v>
@@ -5766,10 +5783,10 @@
     </row>
     <row r="77">
       <c r="A77" s="13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C77" s="14">
         <v>9423.0</v>
@@ -5792,10 +5809,10 @@
     </row>
     <row r="78">
       <c r="A78" s="13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C78" s="14">
         <v>24513.0</v>
@@ -5818,10 +5835,10 @@
     </row>
     <row r="79">
       <c r="A79" s="13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C79" s="14">
         <v>3333.0</v>
@@ -5844,10 +5861,10 @@
     </row>
     <row r="80">
       <c r="A80" s="13" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C80" s="14">
         <v>21393.0</v>
@@ -5870,10 +5887,10 @@
     </row>
     <row r="81">
       <c r="A81" s="13" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C81" s="14">
         <v>13731.0</v>
@@ -5896,10 +5913,10 @@
     </row>
     <row r="82">
       <c r="A82" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C82" s="14">
         <v>18793.0</v>
@@ -5922,10 +5939,10 @@
     </row>
     <row r="83">
       <c r="A83" s="13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C83" s="14">
         <v>256905.0</v>
@@ -5948,10 +5965,10 @@
     </row>
     <row r="84">
       <c r="A84" s="13" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C84" s="14">
         <v>10839.0</v>
@@ -5974,10 +5991,10 @@
     </row>
     <row r="85">
       <c r="A85" s="13" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C85" s="14">
         <v>6343.0</v>
@@ -6000,10 +6017,10 @@
     </row>
     <row r="86">
       <c r="A86" s="13" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C86" s="14">
         <v>50769.0</v>
@@ -6026,10 +6043,10 @@
     </row>
     <row r="87">
       <c r="A87" s="13" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C87" s="14">
         <v>134365.0</v>
@@ -6052,10 +6069,10 @@
     </row>
     <row r="88">
       <c r="A88" s="13" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C88" s="14">
         <v>9881.0</v>
